--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>1.676215</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>1.700204616587778</v>
+        <v>1.69366775058</v>
       </c>
       <c r="R2">
-        <v>15.30184154929</v>
+        <v>15.24300975522</v>
       </c>
       <c r="S2">
-        <v>0.5356624298519768</v>
+        <v>0.5575259477623117</v>
       </c>
       <c r="T2">
-        <v>0.5831288282815508</v>
+        <v>0.6060529899648499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.676215</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
         <v>0.5966854197338889</v>
@@ -638,10 +638,10 @@
         <v>5.370168777605</v>
       </c>
       <c r="S3">
-        <v>0.1879902916822836</v>
+        <v>0.196418455768061</v>
       </c>
       <c r="T3">
-        <v>0.2046485853922773</v>
+        <v>0.2135147124188414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>1.676215</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>0.01261817402777778</v>
+        <v>0.02376854245388889</v>
       </c>
       <c r="R4">
-        <v>0.11356356625</v>
+        <v>0.213916882085</v>
       </c>
       <c r="S4">
-        <v>0.003975451950942043</v>
+        <v>0.007824190520245258</v>
       </c>
       <c r="T4">
-        <v>0.004327726771285868</v>
+        <v>0.008505207834507571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>1.676215</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>0.7750915939208332</v>
+        <v>0.2413394801158333</v>
       </c>
       <c r="R5">
-        <v>4.650549563524999</v>
+        <v>1.448036880695</v>
       </c>
       <c r="S5">
-        <v>0.2441985173471266</v>
+        <v>0.07944475670506543</v>
       </c>
       <c r="T5">
-        <v>0.1772250424308857</v>
+        <v>0.05757308400488608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,40 +794,350 @@
         <v>1.676215</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.04057666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.12173</v>
+      </c>
+      <c r="O6">
+        <v>0.008793859627735762</v>
+      </c>
+      <c r="P6">
+        <v>0.009077095809555328</v>
+      </c>
+      <c r="Q6">
+        <v>0.02267173910555556</v>
+      </c>
+      <c r="R6">
+        <v>0.20404565195</v>
+      </c>
+      <c r="S6">
+        <v>0.007463141946179294</v>
+      </c>
+      <c r="T6">
+        <v>0.008112733603104605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.199252</v>
+      </c>
+      <c r="I7">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J7">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.160044</v>
-      </c>
-      <c r="N6">
-        <v>0.480132</v>
-      </c>
-      <c r="O6">
-        <v>0.02817330916767092</v>
-      </c>
-      <c r="P6">
-        <v>0.03066981712400039</v>
-      </c>
-      <c r="Q6">
-        <v>0.08942271782</v>
-      </c>
-      <c r="R6">
-        <v>0.80480446038</v>
-      </c>
-      <c r="S6">
-        <v>0.02817330916767092</v>
-      </c>
-      <c r="T6">
-        <v>0.03066981712400039</v>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.031236</v>
+      </c>
+      <c r="N7">
+        <v>9.093708000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.6569357730026921</v>
+      </c>
+      <c r="P7">
+        <v>0.6780946256479073</v>
+      </c>
+      <c r="Q7">
+        <v>0.301989917736</v>
+      </c>
+      <c r="R7">
+        <v>1.811939506416</v>
+      </c>
+      <c r="S7">
+        <v>0.09940982524038038</v>
+      </c>
+      <c r="T7">
+        <v>0.07204163568305752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.199252</v>
+      </c>
+      <c r="I8">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J8">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.203747</v>
+      </c>
+      <c r="O8">
+        <v>0.2314409052885859</v>
+      </c>
+      <c r="P8">
+        <v>0.2388952474211406</v>
+      </c>
+      <c r="Q8">
+        <v>0.1063921662073333</v>
+      </c>
+      <c r="R8">
+        <v>0.638352997244</v>
+      </c>
+      <c r="S8">
+        <v>0.03502244952052484</v>
+      </c>
+      <c r="T8">
+        <v>0.02538053500229922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.199252</v>
+      </c>
+      <c r="I9">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J9">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04253966666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.127619</v>
+      </c>
+      <c r="O9">
+        <v>0.009219285072143351</v>
+      </c>
+      <c r="P9">
+        <v>0.009516223528461688</v>
+      </c>
+      <c r="Q9">
+        <v>0.004238056831333333</v>
+      </c>
+      <c r="R9">
+        <v>0.025428340988</v>
+      </c>
+      <c r="S9">
+        <v>0.001395094551898093</v>
+      </c>
+      <c r="T9">
+        <v>0.001011015693954118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.199252</v>
+      </c>
+      <c r="I10">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J10">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4319364999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.8638729999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.09361017700884301</v>
+      </c>
+      <c r="P10">
+        <v>0.06441680759293508</v>
+      </c>
+      <c r="Q10">
+        <v>0.04303210574899999</v>
+      </c>
+      <c r="R10">
+        <v>0.172128422996</v>
+      </c>
+      <c r="S10">
+        <v>0.01416542030377758</v>
+      </c>
+      <c r="T10">
+        <v>0.006843723588049004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.199252</v>
+      </c>
+      <c r="I11">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J11">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.04057666666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.12173</v>
+      </c>
+      <c r="O11">
+        <v>0.008793859627735762</v>
+      </c>
+      <c r="P11">
+        <v>0.009077095809555328</v>
+      </c>
+      <c r="Q11">
+        <v>0.004042490993333333</v>
+      </c>
+      <c r="R11">
+        <v>0.02425494596</v>
+      </c>
+      <c r="S11">
+        <v>0.001330717681556468</v>
+      </c>
+      <c r="T11">
+        <v>0.000964362206450723</v>
       </c>
     </row>
   </sheetData>
